--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0ad513c21b2b58/Documents/Programming/Python/Schedular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1376" documentId="8_{ABCCCFCC-F580-419F-9EB4-1F0A78ED5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B542BA-F86A-40AA-A5A6-1D0A4DBE7C35}"/>
+  <xr:revisionPtr revIDLastSave="1487" documentId="8_{ABCCCFCC-F580-419F-9EB4-1F0A78ED5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E6E94A-C156-46AF-9D3E-0ACE41D8C39C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{73A0230C-F103-4711-878E-970B55EAFC2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73A0230C-F103-4711-878E-970B55EAFC2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Teachers" sheetId="3" r:id="rId1"/>
-    <sheet name="Rooms" sheetId="4" r:id="rId2"/>
-    <sheet name="Courses" sheetId="2" r:id="rId3"/>
-    <sheet name="Duties" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Info" sheetId="7" r:id="rId1"/>
+    <sheet name="Teachers" sheetId="3" r:id="rId2"/>
+    <sheet name="Rooms" sheetId="4" r:id="rId3"/>
+    <sheet name="Courses" sheetId="2" r:id="rId4"/>
+    <sheet name="Duties" sheetId="6" r:id="rId5"/>
+    <sheet name="_Select" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -162,9 +163,6 @@
     <t>Room5</t>
   </si>
   <si>
-    <t>lobby duty, study hall, door duty, lunch duty</t>
-  </si>
-  <si>
     <t>Lunch</t>
   </si>
   <si>
@@ -181,13 +179,72 @@
   </si>
   <si>
     <t>Bible</t>
+  </si>
+  <si>
+    <t>(NOT IMPLEMENTED YET)</t>
+  </si>
+  <si>
+    <t>This is just for selecting options for type of classes</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Use upper and lowercase (aka not case sensitive)</t>
+  </si>
+  <si>
+    <t>Use ALL (not case sensitive)</t>
+  </si>
+  <si>
+    <t>Must</t>
+  </si>
+  <si>
+    <t>Use comma(s) with multiple days</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Format for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Days </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>column (like Monday, Tuesday)</t>
+    </r>
+  </si>
+  <si>
+    <t>Use spaces between commas</t>
+  </si>
+  <si>
+    <t>Spell out full day</t>
+  </si>
+  <si>
+    <t>"Periods" are what periods they are available (for example, if elementry is using the gym you can exclude that period)</t>
+  </si>
+  <si>
+    <t>Or if a teacher is part-time, you can just exclude the periods they don’t teach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +254,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,8 +302,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,12 +644,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BE0376-9E54-420A-9C88-5FA27EEFF221}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A739215-EC41-4FBD-974D-BCD4628D1258}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,11 +730,11 @@
     <col min="5" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -660,12 +816,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135D99AC-01B5-40E4-99A8-A5007C5B3DE5}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,11 +829,11 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -750,13 +906,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD60597-D35E-407B-BAA9-5C5486AFCB23}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,41 +923,41 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1013,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>201</v>
@@ -1033,7 +1189,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A762A133-84C3-4F13-A313-3E0C023B6C43}">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$3</xm:f>
+            <xm:f>_Select!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D317</xm:sqref>
         </x14:dataValidation>
@@ -1049,27 +1205,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B1AE3-C87F-4073-A141-D486FF9852A3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1085,15 +1241,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>40</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1101,27 +1257,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB490DB5-7996-45C1-9F7A-896BDD894625}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0ad513c21b2b58/Documents/Programming/Python/Schedular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1487" documentId="8_{ABCCCFCC-F580-419F-9EB4-1F0A78ED5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E6E94A-C156-46AF-9D3E-0ACE41D8C39C}"/>
+  <xr:revisionPtr revIDLastSave="1605" documentId="8_{ABCCCFCC-F580-419F-9EB4-1F0A78ED5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586127ED-A837-4EBD-AE93-13B08D5EDD53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73A0230C-F103-4711-878E-970B55EAFC2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{73A0230C-F103-4711-878E-970B55EAFC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Duties" sheetId="6" r:id="rId5"/>
     <sheet name="_Select" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Courses!$A$1:$K$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -106,9 +109,6 @@
     <t>Stockman</t>
   </si>
   <si>
-    <t>Bible 9A</t>
-  </si>
-  <si>
     <t>Peters</t>
   </si>
   <si>
@@ -170,12 +170,6 @@
   </si>
   <si>
     <t>Door</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>9A</t>
   </si>
   <si>
     <t>Bible</t>
@@ -238,6 +232,15 @@
   </si>
   <si>
     <t>Or if a teacher is part-time, you can just exclude the periods they don’t teach</t>
+  </si>
+  <si>
+    <t>during a period</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Grades</t>
   </si>
 </sst>
 </file>
@@ -305,10 +308,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -326,6 +329,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,10 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BE0376-9E54-420A-9C88-5FA27EEFF221}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="XEB1" workbookViewId="0">
+      <selection activeCell="XFD22" sqref="XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,47 +669,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +726,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +804,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -804,7 +812,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -818,10 +826,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135D99AC-01B5-40E4-99A8-A5007C5B3DE5}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +904,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -909,10 +918,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD60597-D35E-407B-BAA9-5C5486AFCB23}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,10 +929,12 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,27 +948,30 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -969,13 +983,16 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -983,24 +1000,27 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1009,35 +1029,41 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1049,15 +1075,18 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1069,18 +1098,21 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1089,15 +1121,18 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1109,73 +1144,67 @@
         <v>13</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>201</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K11" xr:uid="{3BD60597-D35E-407B-BAA9-5C5486AFCB23}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
+      <sortCondition ref="E1:E11"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1185,19 +1214,19 @@
           <x14:formula1>
             <xm:f>Teachers!$A$2:$A$317</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B157</xm:sqref>
+          <xm:sqref>B2:B125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A762A133-84C3-4F13-A313-3E0C023B6C43}">
           <x14:formula1>
             <xm:f>_Select!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D317</xm:sqref>
+          <xm:sqref>D2:D285</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D6CCFC0-00EB-4B7D-B9DA-E03308865E66}">
           <x14:formula1>
             <xm:f>Rooms!$A$2:$A$179</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:J194</xm:sqref>
+          <xm:sqref>G2:K162</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1207,49 +1236,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B1AE3-C87F-4073-A141-D486FF9852A3}">
-  <dimension ref="A1:B6"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1259,6 +1292,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB490DB5-7996-45C1-9F7A-896BDD894625}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1272,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0ad513c21b2b58/Documents/Programming/Python/Schedular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1605" documentId="8_{ABCCCFCC-F580-419F-9EB4-1F0A78ED5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586127ED-A837-4EBD-AE93-13B08D5EDD53}"/>
+  <xr:revisionPtr revIDLastSave="1631" documentId="8_{ABCCCFCC-F580-419F-9EB4-1F0A78ED5454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A9B572-8ADE-4AA2-8138-F3ED33EF96EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{73A0230C-F103-4711-878E-970B55EAFC2C}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="Teachers" sheetId="3" r:id="rId2"/>
     <sheet name="Rooms" sheetId="4" r:id="rId3"/>
     <sheet name="Courses" sheetId="2" r:id="rId4"/>
-    <sheet name="Duties" sheetId="6" r:id="rId5"/>
-    <sheet name="_Select" sheetId="5" r:id="rId6"/>
+    <sheet name="Grades" sheetId="8" r:id="rId5"/>
+    <sheet name="Duties" sheetId="6" r:id="rId6"/>
+    <sheet name="_Select" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Courses!$A$1:$K$11</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -241,6 +242,12 @@
   </si>
   <si>
     <t>Grades</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -329,10 +336,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,7 +658,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="XEB1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="XFD22" sqref="XFD22"/>
     </sheetView>
   </sheetViews>
@@ -827,10 +830,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135D99AC-01B5-40E4-99A8-A5007C5B3DE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,31 +841,40 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>203</v>
       </c>
@@ -870,15 +882,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>205</v>
       </c>
@@ -886,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>204</v>
       </c>
@@ -894,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>206</v>
       </c>
@@ -902,12 +917,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +939,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,6 +1253,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E7822F-BDA8-4A81-B0BA-70E8C1B7B26B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B1AE3-C87F-4073-A141-D486FF9852A3}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C6"/>
@@ -1290,7 +1343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB490DB5-7996-45C1-9F7A-896BDD894625}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>Core</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>ALL</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Any</t>
@@ -304,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -324,26 +321,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -668,13 +653,13 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -683,38 +668,38 @@
       <c r="B3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -746,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -754,79 +739,79 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +830,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -855,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -866,10 +851,10 @@
         <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -877,10 +862,10 @@
         <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -888,21 +873,21 @@
         <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="13" t="s">
-        <v>29</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -910,10 +895,10 @@
         <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -921,10 +906,10 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -932,21 +917,21 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="13" t="s">
-        <v>49</v>
+      <c r="A9" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -970,8 +955,8 @@
     <col min="3" max="3" style="2" width="36.14785714285715" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -993,7 +978,7 @@
       <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1013,45 +998,43 @@
       <c r="E2" s="5">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -1059,22 +1042,22 @@
       <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -1082,45 +1065,45 @@
       <c r="E5" s="5">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -1128,19 +1111,19 @@
       <c r="E7" s="5">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -1152,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -1173,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1194,16 +1177,16 @@
         <v>8</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="10">
+      <c r="G10" s="5">
         <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1215,65 +1198,65 @@
         <v>8</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -1281,22 +1264,22 @@
       <c r="E14" s="5">
         <v>8</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>21</v>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
@@ -1304,11 +1287,11 @@
       <c r="E15" s="5">
         <v>8</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1340,10 +1323,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,14 +16,14 @@
     <sheet r:id="rId7" sheetId="7" name="_Select"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">=Courses!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">=Courses!$A$1:$G$16</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
   <si>
     <t>Core</t>
   </si>
@@ -154,6 +154,9 @@
     <t>Strand</t>
   </si>
   <si>
+    <t>8, 7</t>
+  </si>
+  <si>
     <t>History</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>Monday,Tuesday,Wednesday,Thursday</t>
   </si>
   <si>
-    <t>8, 7</t>
-  </si>
-  <si>
     <t>Band</t>
   </si>
   <si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>StudyA</t>
+  </si>
+  <si>
+    <t>Bible7</t>
   </si>
   <si>
     <t>StudyB</t>
@@ -301,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -325,6 +328,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -653,13 +665,13 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -668,38 +680,38 @@
       <c r="B3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>59</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -731,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -739,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -747,7 +759,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -755,7 +767,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -763,7 +775,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -771,7 +783,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -779,15 +791,15 @@
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -795,7 +807,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -803,7 +815,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -811,7 +823,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +842,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -840,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -851,7 +863,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -862,7 +874,7 @@
         <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -873,7 +885,7 @@
         <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -884,7 +896,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -895,7 +907,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -906,7 +918,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -917,7 +929,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -928,7 +940,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
@@ -944,7 +956,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -952,11 +964,11 @@
   <cols>
     <col min="1" max="1" style="2" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="36.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1173,8 +1185,8 @@
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
-        <v>8</v>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -1183,10 +1195,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1204,19 +1216,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>24</v>
@@ -1233,13 +1245,13 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
@@ -1276,21 +1288,42 @@
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>8</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -249,7 +249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +267,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -330,13 +336,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -345,7 +351,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,14 +16,14 @@
     <sheet r:id="rId7" sheetId="7" name="_Select"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">=Courses!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">=Courses!$A$1:$G$15</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>Core</t>
   </si>
@@ -154,21 +154,21 @@
     <t>Strand</t>
   </si>
   <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Stockman</t>
+  </si>
+  <si>
+    <t>Choir</t>
+  </si>
+  <si>
+    <t>Monday,Tuesday,Wednesday,Thursday</t>
+  </si>
+  <si>
     <t>8, 7</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Stockman</t>
-  </si>
-  <si>
-    <t>Choir</t>
-  </si>
-  <si>
-    <t>Monday,Tuesday,Wednesday,Thursday</t>
-  </si>
-  <si>
     <t>Band</t>
   </si>
   <si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>StudyA</t>
-  </si>
-  <si>
-    <t>Bible7</t>
   </si>
   <si>
     <t>StudyB</t>
@@ -249,7 +246,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,12 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -310,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -336,22 +327,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -671,13 +653,13 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -686,38 +668,38 @@
       <c r="B3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -749,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -757,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -765,7 +747,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -773,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -781,7 +763,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -789,7 +771,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -797,15 +779,15 @@
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -813,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -821,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -829,7 +811,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +830,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -858,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -869,7 +851,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -880,7 +862,7 @@
         <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -891,7 +873,7 @@
         <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -902,7 +884,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -913,7 +895,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -924,7 +906,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -935,7 +917,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -946,7 +928,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
@@ -962,7 +944,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -973,8 +955,8 @@
     <col min="3" max="3" style="2" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1191,8 +1173,8 @@
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
+      <c r="E10" s="5">
+        <v>8</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -1201,10 +1183,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1222,19 +1204,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>24</v>
@@ -1251,13 +1233,13 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
@@ -1294,42 +1276,21 @@
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>7</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E15" s="5">
         <v>8</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -15,15 +15,12 @@
     <sheet r:id="rId6" sheetId="6" name="Duties"/>
     <sheet r:id="rId7" sheetId="7" name="_Select"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">=Courses!$A$1:$G$15</definedName>
-  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="76">
   <si>
     <t>Core</t>
   </si>
@@ -163,6 +160,9 @@
     <t>Choir</t>
   </si>
   <si>
+    <t>Cho</t>
+  </si>
+  <si>
     <t>Monday,Tuesday,Wednesday,Thursday</t>
   </si>
   <si>
@@ -179,6 +179,36 @@
   </si>
   <si>
     <t>StudyB</t>
+  </si>
+  <si>
+    <t>Phys Sci</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Lang9</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>ALG 2</t>
+  </si>
+  <si>
+    <t>Braaten</t>
+  </si>
+  <si>
+    <t>Spanish1</t>
+  </si>
+  <si>
+    <t>US Hist</t>
+  </si>
+  <si>
+    <t>Hendrickson</t>
+  </si>
+  <si>
+    <t>BandHS</t>
   </si>
   <si>
     <t>Periods</t>
@@ -246,7 +276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +298,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -282,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -297,11 +333,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -327,13 +372,28 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -653,13 +713,13 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -668,38 +728,38 @@
       <c r="B3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>59</v>
+      <c r="A5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -716,14 +776,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -731,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -739,7 +799,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -747,7 +807,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -755,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -763,7 +823,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -771,15 +831,15 @@
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -787,7 +847,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -795,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -803,7 +863,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -811,7 +871,47 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -824,13 +924,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -840,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -851,7 +951,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -862,7 +962,7 @@
         <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -873,7 +973,7 @@
         <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -884,7 +984,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -895,7 +995,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -906,7 +1006,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -917,7 +1017,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -925,14 +1025,107 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5">
+        <v>283</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="5">
+        <v>302</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="5">
+        <v>303</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="5">
+        <v>304</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="5">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="5">
+        <v>305</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="5">
+        <v>264</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5">
+        <v>313</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -944,19 +1137,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="12.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -981,6 +1176,8 @@
       <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -1002,6 +1199,8 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
@@ -1025,6 +1224,8 @@
       <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
@@ -1048,6 +1249,8 @@
       <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
@@ -1071,6 +1274,8 @@
       <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
@@ -1094,6 +1299,8 @@
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
@@ -1117,6 +1324,8 @@
       <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
@@ -1138,6 +1347,8 @@
       <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
@@ -1159,6 +1370,8 @@
       <c r="G9" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
@@ -1180,6 +1393,8 @@
       <c r="G10" s="5">
         <v>206</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
@@ -1201,22 +1416,24 @@
       <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>24</v>
@@ -1224,33 +1441,37 @@
       <c r="G12" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1270,29 +1491,182 @@
       <c r="G14" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="10">
         <v>8</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,7 +1678,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1335,6 +1709,14 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Info"/>
@@ -276,7 +276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,12 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -346,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -387,13 +381,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -728,16 +716,16 @@
       <c r="B3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -778,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -930,7 +918,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -1123,7 +1111,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="14"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
@@ -1139,7 +1127,7 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1147,9 +1135,9 @@
     <col min="2" max="2" style="2" width="12.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="2" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
@@ -1662,9 +1650,9 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
